--- a/nmadb/481589.xlsx
+++ b/nmadb/481589.xlsx
@@ -1,6 +1,242 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Kremer</t>
+  </si>
+  <si>
+    <t>Schiff</t>
+  </si>
+  <si>
+    <t>Weinblatt</t>
+  </si>
+  <si>
+    <t>Westhovens</t>
+  </si>
+  <si>
+    <t>Breedveld</t>
+  </si>
+  <si>
+    <t>Furst</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Keystone</t>
+  </si>
+  <si>
+    <t>Miyasaka</t>
+  </si>
+  <si>
+    <t>Van de putte</t>
+  </si>
+  <si>
+    <t>Bao</t>
+  </si>
+  <si>
+    <t>Breshnihan</t>
+  </si>
+  <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>Fleishman</t>
+  </si>
+  <si>
+    <t>Smolen</t>
+  </si>
+  <si>
+    <t>Emery</t>
+  </si>
+  <si>
+    <t>Klareskog</t>
+  </si>
+  <si>
+    <t>Moreland</t>
+  </si>
+  <si>
+    <t>Kay</t>
+  </si>
+  <si>
+    <t>kay</t>
+  </si>
+  <si>
+    <t>Lipsky</t>
+  </si>
+  <si>
+    <t>St. Clair</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t>Tak</t>
+  </si>
+  <si>
+    <t>Genovese</t>
+  </si>
+  <si>
+    <t>Beneficial</t>
+  </si>
+  <si>
+    <t>Outcome:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overall treatment withdrawal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>Abatacept</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>Adalimumab</t>
+  </si>
+  <si>
+    <t>Anakinra</t>
+  </si>
+  <si>
+    <t>Certolizumab</t>
+  </si>
+  <si>
+    <t>Etanercept</t>
+  </si>
+  <si>
+    <t>Golimumab</t>
+  </si>
+  <si>
+    <t>Infliximab</t>
+  </si>
+  <si>
+    <t>Rituximab</t>
+  </si>
+  <si>
+    <t>Tocilizumab</t>
+  </si>
+  <si>
+    <t>Per</t>
+  </si>
+  <si>
+    <t>r (calculation)</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +310,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +344,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +378,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +513,2303 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>2005</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>115</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>21.7</v>
+      </c>
+      <c r="O2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>119</v>
+      </c>
+      <c r="F3">
+        <v>48</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="N3">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="O3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>2006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>433</v>
+      </c>
+      <c r="F4">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="N4">
+        <v>11.1</v>
+      </c>
+      <c r="O4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>219</v>
+      </c>
+      <c r="F5">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="N5">
+        <v>26</v>
+      </c>
+      <c r="O5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>2008</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>156</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="N6">
+        <v>5.8</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>55</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="N7">
+        <v>5.5</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>959</v>
+      </c>
+      <c r="F8">
+        <v>123</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="N8">
+        <v>12.8</v>
+      </c>
+      <c r="O8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>482</v>
+      </c>
+      <c r="F9">
+        <v>87</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="N9">
+        <v>18</v>
+      </c>
+      <c r="O9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>2009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>256</v>
+      </c>
+      <c r="F10">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="N10">
+        <v>9.4</v>
+      </c>
+      <c r="O10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>253</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="N11">
+        <v>10.3</v>
+      </c>
+      <c r="O11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>268</v>
+      </c>
+      <c r="F12">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="4">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="N12">
+        <v>24.3</v>
+      </c>
+      <c r="O12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>257</v>
+      </c>
+      <c r="F13">
+        <v>112</v>
+      </c>
+      <c r="N13">
+        <v>43.6</v>
+      </c>
+      <c r="O13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>2003</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>318</v>
+      </c>
+      <c r="F14">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>318</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="N15">
+        <v>9.4</v>
+      </c>
+      <c r="O15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>2007</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>63</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>6.3</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>2004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>212</v>
+      </c>
+      <c r="F18">
+        <v>44</v>
+      </c>
+      <c r="N18">
+        <v>20.8</v>
+      </c>
+      <c r="O18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>207</v>
+      </c>
+      <c r="F19">
+        <v>48</v>
+      </c>
+      <c r="N19">
+        <v>23.2</v>
+      </c>
+      <c r="O19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>200</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="N20">
+        <v>30</v>
+      </c>
+      <c r="O20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>2008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>91</v>
+      </c>
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="O21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>87</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>2003</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>72</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>13.9</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>70</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="O24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>70</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="N25">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="O25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>2004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>112</v>
+      </c>
+      <c r="F26">
+        <v>33</v>
+      </c>
+      <c r="N26">
+        <v>29.5</v>
+      </c>
+      <c r="O26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>113</v>
+      </c>
+      <c r="F27">
+        <v>32</v>
+      </c>
+      <c r="N27">
+        <v>28.3</v>
+      </c>
+      <c r="O27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>103</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="N28">
+        <v>14.6</v>
+      </c>
+      <c r="O28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>110</v>
+      </c>
+      <c r="F29">
+        <v>62</v>
+      </c>
+      <c r="N29">
+        <v>56.4</v>
+      </c>
+      <c r="O29">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>2011</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>42</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>26.4</v>
+      </c>
+      <c r="O30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>22</v>
+      </c>
+      <c r="O31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32">
+        <v>1998</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>116</v>
+      </c>
+      <c r="F32">
+        <v>22</v>
+      </c>
+      <c r="N32">
+        <v>26.4</v>
+      </c>
+      <c r="O32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>116</v>
+      </c>
+      <c r="F33">
+        <v>28</v>
+      </c>
+      <c r="N33">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="O33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>121</v>
+      </c>
+      <c r="F34">
+        <v>32</v>
+      </c>
+      <c r="N34">
+        <v>21.6</v>
+      </c>
+      <c r="O34">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>2002</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>59</v>
+      </c>
+      <c r="F35">
+        <v>13</v>
+      </c>
+      <c r="N35">
+        <v>18.7</v>
+      </c>
+      <c r="O35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>72</v>
+      </c>
+      <c r="F36">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>31.5</v>
+      </c>
+      <c r="O36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>74</v>
+      </c>
+      <c r="F37">
+        <v>14</v>
+      </c>
+      <c r="N37">
+        <v>74.3</v>
+      </c>
+      <c r="O37">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>2003</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>1116</v>
+      </c>
+      <c r="F38">
+        <v>241</v>
+      </c>
+      <c r="N38">
+        <v>29.7</v>
+      </c>
+      <c r="O38">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>283</v>
+      </c>
+      <c r="F39">
+        <v>53</v>
+      </c>
+      <c r="N39">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="O39">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>2009</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>111</v>
+      </c>
+      <c r="F40">
+        <v>35</v>
+      </c>
+      <c r="N40">
+        <v>26.4</v>
+      </c>
+      <c r="O40">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>109</v>
+      </c>
+      <c r="F41">
+        <v>81</v>
+      </c>
+      <c r="N41">
+        <v>86.6</v>
+      </c>
+      <c r="O41">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42">
+        <v>2008</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>390</v>
+      </c>
+      <c r="F42">
+        <v>116</v>
+      </c>
+      <c r="N42">
+        <v>19.3</v>
+      </c>
+      <c r="O42">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>199</v>
+      </c>
+      <c r="F43">
+        <v>156</v>
+      </c>
+      <c r="N43">
+        <v>29.5</v>
+      </c>
+      <c r="O43">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44">
+        <v>2009</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>246</v>
+      </c>
+      <c r="F44">
+        <v>65</v>
+      </c>
+      <c r="N44">
+        <v>17.8</v>
+      </c>
+      <c r="O44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>127</v>
+      </c>
+      <c r="F45">
+        <v>110</v>
+      </c>
+      <c r="N45">
+        <v>23.2</v>
+      </c>
+      <c r="O45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46">
+        <v>2008</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>274</v>
+      </c>
+      <c r="F46">
+        <v>53</v>
+      </c>
+      <c r="N46">
+        <v>16.5</v>
+      </c>
+      <c r="O46">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>268</v>
+      </c>
+      <c r="F47">
+        <v>79</v>
+      </c>
+      <c r="N47">
+        <v>30.3</v>
+      </c>
+      <c r="O47">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48">
+        <v>2010</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>90</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="N48">
+        <v>6.8</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>21</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>99</v>
+      </c>
+      <c r="F49">
+        <v>23</v>
+      </c>
+      <c r="N49">
+        <v>47.7</v>
+      </c>
+      <c r="O49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50">
+        <v>2004</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>231</v>
+      </c>
+      <c r="F50">
+        <v>38</v>
+      </c>
+      <c r="N50">
+        <v>24.4</v>
+      </c>
+      <c r="O50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51">
+        <v>22</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>228</v>
+      </c>
+      <c r="F51">
+        <v>69</v>
+      </c>
+      <c r="N51">
+        <v>67.5</v>
+      </c>
+      <c r="O51">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52">
+        <v>1997</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>23</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>44</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>3.4</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53">
+        <v>23</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" s="5">
+        <v>44</v>
+      </c>
+      <c r="F53" s="5">
+        <v>21</v>
+      </c>
+      <c r="N53">
+        <v>20</v>
+      </c>
+      <c r="O53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54">
+        <v>1999</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>78</v>
+      </c>
+      <c r="F54">
+        <v>19</v>
+      </c>
+      <c r="N54">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>80</v>
+      </c>
+      <c r="F55">
+        <v>54</v>
+      </c>
+      <c r="N55">
+        <v>6.3</v>
+      </c>
+      <c r="O55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56">
+        <v>1999</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>25</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>59</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>11.4</v>
+      </c>
+      <c r="O56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="N57">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="O57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58">
+        <v>2009</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>158</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="N58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59">
+        <v>26</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>160</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="N59">
+        <v>4.5</v>
+      </c>
+      <c r="O59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60">
+        <v>2008</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60">
+        <v>27</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>35</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="N60">
+        <v>26.7</v>
+      </c>
+      <c r="O60">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>27</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>35</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="N61">
+        <v>23.3</v>
+      </c>
+      <c r="O61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62">
+        <v>2009</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>28</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>89</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>13.8</v>
+      </c>
+      <c r="O62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>28</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>133</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="N63">
+        <v>19.8</v>
+      </c>
+      <c r="O63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64">
+        <v>2000</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64">
+        <v>29</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>86</v>
+      </c>
+      <c r="F64">
+        <v>23</v>
+      </c>
+      <c r="N64">
+        <v>50</v>
+      </c>
+      <c r="O64">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65">
+        <v>29</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>86</v>
+      </c>
+      <c r="F65">
+        <v>20</v>
+      </c>
+      <c r="N65">
+        <v>7.9</v>
+      </c>
+      <c r="O65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66">
+        <v>29</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>87</v>
+      </c>
+      <c r="F66">
+        <v>12</v>
+      </c>
+      <c r="N66">
+        <v>3.6</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67">
+        <v>29</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67">
+        <v>81</v>
+      </c>
+      <c r="F67">
+        <v>16</v>
+      </c>
+      <c r="N67">
+        <v>17.7</v>
+      </c>
+      <c r="O67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68">
+        <v>29</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>88</v>
+      </c>
+      <c r="F68">
+        <v>44</v>
+      </c>
+      <c r="N68">
+        <v>20</v>
+      </c>
+      <c r="O68">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69">
+        <v>2008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>30</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>165</v>
+      </c>
+      <c r="F69">
+        <v>13</v>
+      </c>
+      <c r="N69">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="O69">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>55</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>7.2</v>
+      </c>
+      <c r="O70">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71">
+        <v>2004</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71">
+        <v>31</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>373</v>
+      </c>
+      <c r="F71">
+        <v>66</v>
+      </c>
+      <c r="N71">
+        <v>8.9</v>
+      </c>
+      <c r="O71">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>31</v>
+      </c>
+      <c r="D72">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>378</v>
+      </c>
+      <c r="F72">
+        <v>76</v>
+      </c>
+      <c r="N72">
+        <v>6.3</v>
+      </c>
+      <c r="O72">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73">
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>298</v>
+      </c>
+      <c r="F73">
+        <v>60</v>
+      </c>
+      <c r="N73">
+        <v>10.3</v>
+      </c>
+      <c r="O73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74">
+        <v>2006</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>32</v>
+      </c>
+      <c r="D74">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>360</v>
+      </c>
+      <c r="F74">
+        <v>26</v>
+      </c>
+      <c r="N74">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>32</v>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>361</v>
+      </c>
+      <c r="F75">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>32</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>363</v>
+      </c>
+      <c r="F76">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77">
+        <v>2006</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77">
+        <v>33</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>87</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78">
+        <v>33</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>86</v>
+      </c>
+      <c r="F78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="5">
+        <v>34</v>
+      </c>
+      <c r="D79" s="5">
+        <v>9</v>
+      </c>
+      <c r="E79" s="5">
+        <v>309</v>
+      </c>
+      <c r="F79" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5">
+        <v>34</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2</v>
+      </c>
+      <c r="E80" s="5">
+        <v>208</v>
+      </c>
+      <c r="F80" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="5">
+        <v>35</v>
+      </c>
+      <c r="D81" s="5">
+        <v>9</v>
+      </c>
+      <c r="E81" s="5">
+        <v>40</v>
+      </c>
+      <c r="F81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5">
+        <v>35</v>
+      </c>
+      <c r="D82" s="5">
+        <v>2</v>
+      </c>
+      <c r="E82" s="5">
+        <v>40</v>
+      </c>
+      <c r="F82" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="5">
+        <v>36</v>
+      </c>
+      <c r="D83" s="5">
+        <v>9</v>
+      </c>
+      <c r="E83" s="5">
+        <v>192</v>
+      </c>
+      <c r="F83" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5">
+        <v>36</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2</v>
+      </c>
+      <c r="E84" s="5">
+        <v>149</v>
+      </c>
+      <c r="F84" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="5">
+        <v>37</v>
+      </c>
+      <c r="D85" s="5">
+        <v>9</v>
+      </c>
+      <c r="E85" s="5">
+        <v>340</v>
+      </c>
+      <c r="F85" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5">
+        <v>37</v>
+      </c>
+      <c r="D86" s="5">
+        <v>2</v>
+      </c>
+      <c r="E86" s="5">
+        <v>172</v>
+      </c>
+      <c r="F86" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="5">
+        <v>2011</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="5">
+        <v>38</v>
+      </c>
+      <c r="D87" s="5">
+        <v>9</v>
+      </c>
+      <c r="E87" s="5">
+        <v>503</v>
+      </c>
+      <c r="F87" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5">
+        <v>38</v>
+      </c>
+      <c r="D88" s="5">
+        <v>2</v>
+      </c>
+      <c r="E88" s="5">
+        <v>252</v>
+      </c>
+      <c r="F88" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="5">
+        <v>39</v>
+      </c>
+      <c r="D89" s="5">
+        <v>10</v>
+      </c>
+      <c r="E89" s="5">
+        <v>338</v>
+      </c>
+      <c r="F89" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5">
+        <v>39</v>
+      </c>
+      <c r="D90" s="5">
+        <v>2</v>
+      </c>
+      <c r="E90" s="5">
+        <v>160</v>
+      </c>
+      <c r="F90" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="5">
+        <v>40</v>
+      </c>
+      <c r="D91" s="5">
+        <v>10</v>
+      </c>
+      <c r="E91" s="5">
+        <v>805</v>
+      </c>
+      <c r="F91" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5">
+        <v>40</v>
+      </c>
+      <c r="D92" s="5">
+        <v>2</v>
+      </c>
+      <c r="E92" s="5">
+        <v>415</v>
+      </c>
+      <c r="F92" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="5">
+        <v>41</v>
+      </c>
+      <c r="D93" s="5">
+        <v>10</v>
+      </c>
+      <c r="E93" s="5">
+        <v>419</v>
+      </c>
+      <c r="F93" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5">
+        <v>41</v>
+      </c>
+      <c r="D94" s="5">
+        <v>2</v>
+      </c>
+      <c r="E94" s="5">
+        <v>204</v>
+      </c>
+      <c r="F94" s="5">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>